--- a/TESTING/24MgREACLIB.xlsx
+++ b/TESTING/24MgREACLIB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/Desktop/24Mg_agp/TESTING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A1A85-60A6-894E-A747-672C70B1592B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592621EE-E454-334B-9C89-ABB779E95225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="2320" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{7DA7426B-8859-EC4A-951B-021C46F8798E}"/>
+    <workbookView xWindow="5740" yWindow="2320" windowWidth="27640" windowHeight="16940" activeTab="6" xr2:uid="{7DA7426B-8859-EC4A-951B-021C46F8798E}"/>
   </bookViews>
   <sheets>
     <sheet name="nacr" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="laur" sheetId="3" r:id="rId4"/>
     <sheet name="ths8" sheetId="5" r:id="rId5"/>
     <sheet name="il10" sheetId="6" r:id="rId6"/>
+    <sheet name="il10_coef" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,19 +37,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>T9</t>
   </si>
   <si>
     <t>Rate</t>
   </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.00000E+00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,6 +108,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,11 +145,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1846,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0A7B6-5764-B94C-860F-02DAAA927816}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,4 +2186,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECFB9DC-3821-BB4E-9342-B3080260C143}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6.4457500000000003</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-22.8216</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>18.041599999999999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-1.5413699999999999</v>
+      </c>
+      <c r="G2" s="6">
+        <v>8.4750599999999995E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-26.286200000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-19.542200000000001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.18642</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-34.793599999999998</v>
+      </c>
+      <c r="F3" s="6">
+        <v>168.22499999999999</v>
+      </c>
+      <c r="G3" s="6">
+        <v>-115.825</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>30.0397</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-18.5791</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-26.4162</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-0.66666700000000001</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>